--- a/documents/Published/Text Enhancer/TextEnhancerbyMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Text Enhancer/TextEnhancerbyMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewGit\documents\Published\Text Enhancer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAQUser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55973319-126B-468A-80D8-EA668B0A8261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A706DA-1E95-40E9-B155-5AD125827001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A4E35CE-5D58-4206-8D6B-1DDFA1AA6FC8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Feature</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
   </si>
 </sst>
 </file>
@@ -503,32 +512,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -545,11 +536,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -568,12 +583,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -587,14 +596,1472 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2855007</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1409701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDEF0A2-C1AF-4315-9EA3-7C50743E6F17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15106650" y="400051"/>
+          <a:ext cx="2731182" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2807382</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1323975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17E506F-2A6F-4256-B9D2-45D8709D936C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18107025" y="314325"/>
+          <a:ext cx="2731182" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2807382</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1314450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EE52C8-C7A2-4C09-A951-990F9048C3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21135975" y="304800"/>
+          <a:ext cx="2731182" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2803831</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1562101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA5C1D9-2935-447D-99BC-502EEE226278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15078076" y="2819401"/>
+          <a:ext cx="2708580" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3070530</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1304925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570CE8C1-8F7B-4983-8903-6269BCABBDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18392775" y="2562225"/>
+          <a:ext cx="2708580" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3051480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1323975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19A0E9F-D113-4ACD-AFB3-6238AAEBCD3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22145625" y="2581275"/>
+          <a:ext cx="2708580" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2676525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1736831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C268E189-9B4C-43B4-9EBD-C889D266E133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15220950" y="4743450"/>
+          <a:ext cx="2438400" cy="1698731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2971801</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1794835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DED4FEC-2D1A-4CF1-A544-C170F424402A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18030826" y="4972050"/>
+          <a:ext cx="2971800" cy="1528135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2939922</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1695450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A829BC77-B158-4DE0-B707-406D255E0C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21945601" y="4962525"/>
+          <a:ext cx="2797046" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2829349</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1705221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88040F05-C57A-4A02-B8B2-75AFA67DC8A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15078075" y="7072865"/>
+          <a:ext cx="2734099" cy="1585606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3305599</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1886196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E604C3A-B018-469B-A6DF-DA9FE6817019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18297525" y="7077075"/>
+          <a:ext cx="3038899" cy="1762371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3038899</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1762371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517E593A-03D6-4FA2-B429-E9DC464A07E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21802725" y="6953250"/>
+          <a:ext cx="3038899" cy="1762371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3258095</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1867212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF737224-F795-4D48-B960-9EAD1CD4B932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15154275" y="9289663"/>
+          <a:ext cx="3086645" cy="1769174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2905670</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1630830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56835BB9-9504-4E4E-AC45-525BE1A99F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19002375" y="9353550"/>
+          <a:ext cx="2562770" cy="1468905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234008</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2905125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1864381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A86781B-7D22-448F-BD30-9CFDE40FE3F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22665383" y="9525000"/>
+          <a:ext cx="2671117" cy="1531006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2914650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1860551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B8FB87-7059-4C4F-8F0E-5108B925A818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392400" y="11630026"/>
+          <a:ext cx="2505075" cy="1670050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3257550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1790701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D09876-7374-41B6-AA5D-8DBD8260D057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19431000" y="11572876"/>
+          <a:ext cx="2486025" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>323851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2847975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1835151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430ADA64-21A3-4B49-AC76-CEAC7B979509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23012400" y="11763376"/>
+          <a:ext cx="2266950" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>476251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3174977</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1524001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80DB5C8-7986-4773-8FB5-0E4512D74B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15325726" y="14173201"/>
+          <a:ext cx="2832076" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3384526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1504950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326D5960-7979-4854-8B77-6B1EF7F7C311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19211925" y="14154150"/>
+          <a:ext cx="2832076" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3079726</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1390650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D211030F-D977-4A94-BBD4-E368850BBDA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22679025" y="14039850"/>
+          <a:ext cx="2832076" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3021543</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1419225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322ACF37-9CED-4C3F-9AAF-03B22E42F457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15059026" y="16268700"/>
+          <a:ext cx="2945342" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3326342</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1266825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AFDF89-D6D5-4B81-8B76-F2536C89EC2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19040475" y="16116300"/>
+          <a:ext cx="2945342" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3107267</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1228725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49FBEF8-828D-4C85-B720-9A3EC0F6229B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22593300" y="16078200"/>
+          <a:ext cx="2945342" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3381623</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1276351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C198D5F3-424D-46B2-967D-979BA360E733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14982826" y="18192751"/>
+          <a:ext cx="3381622" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3524497</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1419225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76D00B7-9E6A-4C0E-8245-946F9BBD6DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18802350" y="18335625"/>
+          <a:ext cx="3381622" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1400175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016060E9-897E-4FB5-AE61-AFE44C464CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22402800" y="18316575"/>
+          <a:ext cx="3381622" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3429000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1646138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40427D4-0227-4CCA-9E73-FEC170960F4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15078075" y="20840700"/>
+          <a:ext cx="3333750" cy="1246088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3409950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1493738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CBE816-B846-4CFD-B51C-9BE886B3556A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18735675" y="20688300"/>
+          <a:ext cx="3333750" cy="1246088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1465163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CE0E10-39EC-4E41-B8BB-E3D673D7CDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22507575" y="20659725"/>
+          <a:ext cx="3333750" cy="1246088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2741611</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A85A112-4729-4D2F-A116-EAC4FA6A5C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15116175" y="23021925"/>
+          <a:ext cx="2608261" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3046411</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B702862F-F3B7-47A1-83FE-C6EB2B92A8C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19097625" y="22955250"/>
+          <a:ext cx="2608261" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2941636</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647FED8A-C92B-4226-A71B-A0BBA8EDB92A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22764750" y="23069550"/>
+          <a:ext cx="2608261" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE8BB874-4A74-4565-B7ED-D46829621901}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D12" xr:uid="{E0521E73-30DB-4C24-B7E6-C7BDA0B0132B}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE8BB874-4A74-4565-B7ED-D46829621901}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E12" xr:uid="{E0521E73-30DB-4C24-B7E6-C7BDA0B0132B}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{11D21F41-AEF5-4BDC-BD00-81DEF280F759}" name="Feature"/>
     <tableColumn id="2" xr3:uid="{EE6C0161-05AD-4228-B720-8B4EBEEFDCF1}" name="BVT"/>
-    <tableColumn id="3" xr3:uid="{A88D7EA9-A894-4D71-B20C-9AC5ACE3CE96}" name="Steps" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{82B89AAE-E58C-44D5-A4BA-3946A0CC45E0}" name="Output" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A88D7EA9-A894-4D71-B20C-9AC5ACE3CE96}" name="Steps" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{82B89AAE-E58C-44D5-A4BA-3946A0CC45E0}" name="Output" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{C75010E8-FDD3-4A07-A006-0F2C64844645}" name="Chrome"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -897,21 +2364,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A803AC-FEA5-4466-94F5-4BD841C22A06}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="79.85546875" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="84.85546875" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="54.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,8 +2396,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,7 +2420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -953,7 +2434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -967,7 +2448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -981,7 +2462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -995,7 +2476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1009,7 +2490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1023,7 +2504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1037,7 +2518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>15</v>
       </c>
@@ -1051,7 +2532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>17</v>
       </c>
@@ -1065,7 +2546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -1082,8 +2563,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1103,7 +2585,7 @@
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -1114,7 +2596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1125,7 +2607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1136,7 +2618,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1147,7 +2629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1158,7 +2640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1169,7 +2651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1180,7 +2662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1191,7 +2673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1202,7 +2684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1213,7 +2695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1224,7 +2706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1235,7 +2717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1257,7 +2739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1268,7 +2750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1279,32 +2761,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1315,44 +2797,44 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="18" t="s">
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -1375,13 +2857,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+      <c r="A28" s="14">
         <v>21</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>65</v>
       </c>
     </row>
